--- a/Results.xlsx
+++ b/Results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Classification</t>
   </si>
@@ -49,28 +49,28 @@
     <t>Large</t>
   </si>
   <si>
-    <t>0.8963/0.9651</t>
-  </si>
-  <si>
-    <t>0.7741/0.9034</t>
-  </si>
-  <si>
-    <t>0.8940/0.9658</t>
-  </si>
-  <si>
-    <t>0.8963/0.9665</t>
-  </si>
-  <si>
-    <t>0.1216/0.0707</t>
-  </si>
-  <si>
-    <t>0.0089/0.0033</t>
-  </si>
-  <si>
-    <t>0.01/0.0032</t>
-  </si>
-  <si>
-    <t>0.6954/0.6722</t>
+    <t>0.9447/0.9759</t>
+  </si>
+  <si>
+    <t>0.9124/0.9836</t>
+  </si>
+  <si>
+    <t>0.9424/0.9756</t>
+  </si>
+  <si>
+    <t>0.9424/0.9773</t>
+  </si>
+  <si>
+    <t>0.067/0.035</t>
+  </si>
+  <si>
+    <t>0.0140/0.0038</t>
+  </si>
+  <si>
+    <t>0.0354/0.0144</t>
+  </si>
+  <si>
+    <t>0.6326/0.5651</t>
   </si>
   <si>
     <t>OOD_1</t>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Regression</t>
-  </si>
-  <si>
-    <t>Standard NN（units=128）</t>
   </si>
   <si>
     <t>None(mse)</t>
@@ -98,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -118,16 +115,6 @@
     <font>
       <sz val="10"/>
       <color indexed="11"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="13"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -176,67 +163,22 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="13"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="16"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="14"/>
@@ -245,7 +187,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="16"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -254,10 +196,55 @@
         <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="16"/>
+        <color indexed="14"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -266,13 +253,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="16"/>
+        <color indexed="14"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -281,28 +268,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="16"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="16"/>
+        <color indexed="14"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -311,13 +298,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="16"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="16"/>
+        <color indexed="14"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -332,7 +319,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="13"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -345,7 +332,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -367,24 +354,21 @@
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -414,9 +398,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -446,9 +427,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ff56c1fe"/>
       <rgbColor rgb="ffed220b"/>
-      <rgbColor rgb="ffb41700"/>
       <rgbColor rgb="ffd5fdc1"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffa5a5a5"/>
@@ -1480,7 +1459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E30"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1523,16 +1502,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="5">
+        <v>0.9895</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.9947</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.9878</v>
+      </c>
+      <c r="E3" s="5">
         <v>0.9912</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.9876</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.993</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.9895</v>
       </c>
     </row>
     <row r="4" ht="21.7" customHeight="1">
@@ -1541,13 +1520,13 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
-        <v>0.0113</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.0053</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.004</v>
+        <v>0.0077</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.0037</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.0044</v>
       </c>
     </row>
     <row r="5" ht="21.7" customHeight="1">
@@ -1556,7 +1535,7 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="8">
-        <v>0.4784</v>
+        <v>0.2024</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1566,16 +1545,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="5">
-        <v>0.9313</v>
+        <v>0.9893</v>
       </c>
       <c r="C6" s="5">
-        <v>0.9249000000000001</v>
+        <v>0.9931</v>
       </c>
       <c r="D6" s="5">
-        <v>0.93</v>
+        <v>0.9897</v>
       </c>
       <c r="E6" s="5">
-        <v>0.9326</v>
+        <v>0.9936</v>
       </c>
     </row>
     <row r="7" ht="21.7" customHeight="1">
@@ -1584,13 +1563,13 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7">
-        <v>0.0199</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.0074</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.0067</v>
+        <v>0.0086</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.0037</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.005</v>
       </c>
     </row>
     <row r="8" ht="21.7" customHeight="1">
@@ -1599,7 +1578,7 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="8">
-        <v>0.5078</v>
+        <v>0.2166</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1629,10 +1608,10 @@
       <c r="C10" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="D10" t="s" s="9">
+      <c r="D10" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="E10" t="s" s="9">
+      <c r="E10" t="s" s="10">
         <v>18</v>
       </c>
     </row>
@@ -1651,18 +1630,10 @@
       <c r="A12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="B12" s="5">
-        <v>0.6425</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.5072</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.6377</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.5894</v>
-      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" ht="21.7" customHeight="1">
       <c r="A13" t="s" s="4">
@@ -1670,117 +1641,119 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7">
-        <v>0.1789</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.012</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.062</v>
+        <v>0.0225</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.014</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.029</v>
       </c>
     </row>
     <row r="14" ht="21.7" customHeight="1">
       <c r="A14" t="s" s="4">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="8">
-        <v>0.7365</v>
-      </c>
+      <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" ht="21.7" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.4615</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.5612</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.4644</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.416</v>
-      </c>
-    </row>
-    <row r="16" ht="21.7" customHeight="1">
-      <c r="A16" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7">
-        <v>0.1914</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.0238</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.0848</v>
-      </c>
-    </row>
-    <row r="17" ht="21.7" customHeight="1">
-      <c r="A17" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7">
+        <v>0.1542</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.0449</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.1056</v>
+      </c>
+    </row>
+    <row r="16" ht="21.05" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" ht="21.05" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" ht="21.7" customHeight="1">
+      <c r="A18" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s" s="10">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s" s="22">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" ht="21.7" customHeight="1">
+      <c r="A19" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.0004</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.0007</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.0004</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="20" ht="21.7" customHeight="1">
+      <c r="A20" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="12">
-        <v>0.7372</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" ht="21.05" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" ht="21.05" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" t="s" s="20">
-        <v>23</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" ht="36" customHeight="1">
-      <c r="A20" t="s" s="4">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s" s="23">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s" s="24">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s" s="23">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s" s="23">
-        <v>5</v>
+      <c r="B20" s="6"/>
+      <c r="C20" s="23">
+        <v>0.0853</v>
+      </c>
+      <c r="D20" s="23">
+        <v>0.0071</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0.0041</v>
       </c>
     </row>
     <row r="21" ht="21.7" customHeight="1">
       <c r="A21" t="s" s="4">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B21" s="5">
-        <v>0.011</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0.01759</v>
+        <v>0.0005</v>
+      </c>
+      <c r="C21" s="23">
+        <v>0.0007</v>
+      </c>
+      <c r="D21" s="23">
+        <v>0.0005</v>
+      </c>
+      <c r="E21" s="23">
+        <v>0.0003</v>
       </c>
     </row>
     <row r="22" ht="21.7" customHeight="1">
@@ -1788,31 +1761,31 @@
         <v>8</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="25">
-        <v>0.18</v>
-      </c>
-      <c r="D22" s="25">
-        <v>0.04</v>
-      </c>
-      <c r="E22" s="25">
-        <v>0.01753</v>
+      <c r="C22" s="23">
+        <v>0.0854</v>
+      </c>
+      <c r="D22" s="23">
+        <v>0.0072</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.0043</v>
       </c>
     </row>
     <row r="23" ht="21.7" customHeight="1">
       <c r="A23" t="s" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23" s="5">
-        <v>0.011</v>
-      </c>
-      <c r="C23" s="25">
-        <v>0.02</v>
-      </c>
-      <c r="D23" s="25">
-        <v>0.01</v>
-      </c>
-      <c r="E23" s="25">
-        <v>0.01836</v>
+        <v>0.0043</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0.0072</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0.0043</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0.0042</v>
       </c>
     </row>
     <row r="24" ht="21.7" customHeight="1">
@@ -1820,83 +1793,59 @@
         <v>8</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="25">
-        <v>0.18</v>
-      </c>
-      <c r="D24" s="25">
-        <v>0.04</v>
-      </c>
-      <c r="E24" s="25">
-        <v>0.01747</v>
+      <c r="C24" s="23">
+        <v>0.1471</v>
+      </c>
+      <c r="D24" s="23">
+        <v>0.0108</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0.0131</v>
       </c>
     </row>
     <row r="25" ht="21.7" customHeight="1">
       <c r="A25" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.133</v>
-      </c>
-      <c r="C25" s="25">
-        <v>0.14</v>
-      </c>
-      <c r="D25" s="25">
-        <v>0.13</v>
-      </c>
-      <c r="E25" s="25">
-        <v>0.057</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" ht="21.7" customHeight="1">
       <c r="A26" t="s" s="4">
         <v>8</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="D26" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="E26" s="25">
-        <v>0.0249</v>
+      <c r="C26" s="24"/>
+      <c r="D26" s="23">
+        <v>0.0504</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0.0572</v>
       </c>
     </row>
     <row r="27" ht="21.7" customHeight="1">
       <c r="A27" t="s" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" ht="21.7" customHeight="1">
       <c r="A28" t="s" s="4">
         <v>8</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-    </row>
-    <row r="29" ht="21.7" customHeight="1">
-      <c r="A29" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-    </row>
-    <row r="30" ht="21.7" customHeight="1">
-      <c r="A30" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="23">
+        <v>0.0252</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0.0443</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
